--- a/output/Media_analise/reactions/@carbonsaida.xlsx
+++ b/output/Media_analise/reactions/@carbonsaida.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\Não anotado\@Saídas\Media_analise\reactions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\V. cholerae metabolism\output\Media_analise\reactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9223D1F-4E3E-45E8-B1FA-8B0503F7DBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BA2010-1CD1-4DE9-B93E-FD9DF818F324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="2235" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -312,14 +315,21 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -350,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -372,6 +382,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2414,7 +2425,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,45 +2455,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>-17.340199999999999</v>
+        <v>0.21413499999999999</v>
       </c>
       <c r="E2">
-        <v>-0.84320099999999998</v>
-      </c>
-      <c r="F2">
-        <v>-4.4164276666666673</v>
+        <v>4.4036400000000002</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0.84750933333333345</v>
       </c>
       <c r="G2">
-        <v>-2.3422200000000002</v>
+        <v>0.59482000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>1.072038888888889</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2490,45 +2489,45 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>-55.689300000000003</v>
+        <v>-9.2128499999999995</v>
       </c>
       <c r="E4">
-        <v>-2.7080000000000002</v>
-      </c>
-      <c r="F4">
-        <v>-10.717773333333334</v>
+        <v>1.42692</v>
+      </c>
+      <c r="F4" s="19">
+        <v>-1.1556151111111115</v>
       </c>
       <c r="G4">
-        <v>-7.5222199999999999</v>
+        <v>-1.2444200000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>0.55555555555555558</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2536,209 +2535,209 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-1.25773</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>48.515300000000003</v>
+      </c>
+      <c r="F6" s="19">
+        <v>7.8425599999999998</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>6.5531899999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-6.6815700000000006E-2</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>32.0413</v>
+      </c>
+      <c r="F7" s="19">
+        <v>5.1480092888888898</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4.3279699999999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>2.35182</v>
+        <v>-3.9531499999999999</v>
       </c>
       <c r="E8">
-        <v>48.3645</v>
-      </c>
-      <c r="F8">
-        <v>9.8317033333333317</v>
+        <v>-0.19222900000000001</v>
+      </c>
+      <c r="F8" s="19">
+        <v>-0.81727277777777774</v>
       </c>
       <c r="G8">
-        <v>6.5328200000000001</v>
+        <v>-0.53396999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D9">
-        <v>-100</v>
+        <v>-48.515300000000003</v>
       </c>
       <c r="E9">
-        <v>-2.1423999999999999</v>
-      </c>
-      <c r="F9">
-        <v>-19.213754444444444</v>
+        <v>1.25773</v>
+      </c>
+      <c r="F9" s="19">
+        <v>-7.8425599999999998</v>
       </c>
       <c r="G9">
-        <v>-13.5075</v>
+        <v>-6.5531899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>4.7036300000000004</v>
+        <v>-55.689300000000003</v>
       </c>
       <c r="E10">
-        <v>96.728999999999999</v>
-      </c>
-      <c r="F10">
-        <v>18.591354444444441</v>
+        <v>-2.7080000000000002</v>
+      </c>
+      <c r="F10" s="19">
+        <v>-10.717773333333334</v>
       </c>
       <c r="G10">
-        <v>13.0656</v>
+        <v>-7.5222199999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D11">
-        <v>-48.515300000000003</v>
+        <v>0.90266599999999997</v>
       </c>
       <c r="E11">
-        <v>1.25773</v>
-      </c>
-      <c r="F11">
-        <v>-7.8425599999999998</v>
+        <v>18.563099999999999</v>
+      </c>
+      <c r="F11" s="19">
+        <v>3.5725917777777778</v>
       </c>
       <c r="G11">
-        <v>-6.5531899999999998</v>
+        <v>2.5074100000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D12">
-        <v>-9.2128499999999995</v>
+        <v>-100</v>
       </c>
       <c r="E12">
-        <v>1.42692</v>
-      </c>
-      <c r="F12">
-        <v>-1.1556151111111115</v>
+        <v>-2.1423999999999999</v>
+      </c>
+      <c r="F12" s="19">
+        <v>-19.213754444444444</v>
       </c>
       <c r="G12">
-        <v>-1.2444200000000001</v>
+        <v>-13.5075</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D13">
-        <v>-3.9531499999999999</v>
+        <v>-17.340199999999999</v>
       </c>
       <c r="E13">
-        <v>-0.19222900000000001</v>
-      </c>
-      <c r="F13">
-        <v>-0.81727277777777774</v>
+        <v>-0.84320099999999998</v>
+      </c>
+      <c r="F13" s="19">
+        <v>-4.4164276666666673</v>
       </c>
       <c r="G13">
-        <v>-0.53396999999999994</v>
+        <v>-2.3422200000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>-6.6815700000000006E-2</v>
+        <v>2.35182</v>
       </c>
       <c r="E14">
-        <v>32.0413</v>
-      </c>
-      <c r="F14">
-        <v>5.1480092888888898</v>
+        <v>48.3645</v>
+      </c>
+      <c r="F14" s="19">
+        <v>9.8317033333333317</v>
       </c>
       <c r="G14">
-        <v>4.3279699999999997</v>
+        <v>6.5328200000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2757,7 +2756,7 @@
       <c r="E15">
         <v>-1.0335700000000001</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="19">
         <v>-4.2591166666666673</v>
       </c>
       <c r="G15">
@@ -2766,25 +2765,25 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D16">
-        <v>-1.25773</v>
+        <v>-21.254999999999999</v>
       </c>
       <c r="E16">
-        <v>48.515300000000003</v>
-      </c>
-      <c r="F16">
-        <v>7.8425599999999998</v>
+        <v>-0.77014099999999996</v>
+      </c>
+      <c r="F16" s="19">
+        <v>-4.0797312222222226</v>
       </c>
       <c r="G16">
-        <v>6.5531899999999998</v>
+        <v>-2.8710200000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2803,7 +2802,7 @@
       <c r="E17">
         <v>151.785</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="19">
         <v>30.376526666666663</v>
       </c>
       <c r="G17">
@@ -2812,70 +2811,82 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>-21.254999999999999</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>-0.77014099999999996</v>
-      </c>
-      <c r="F18">
-        <v>-4.0797312222222226</v>
+        <v>5</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.55555555555555558</v>
       </c>
       <c r="G18">
-        <v>-2.8710200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D19">
-        <v>0.90266599999999997</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>18.563099999999999</v>
-      </c>
-      <c r="F19">
-        <v>3.5725917777777778</v>
+        <v>5</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1.072038888888889</v>
       </c>
       <c r="G19">
-        <v>2.5074100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>0.21413499999999999</v>
+        <v>4.7036300000000004</v>
       </c>
       <c r="E20">
-        <v>4.4036400000000002</v>
-      </c>
-      <c r="F20">
-        <v>0.84750933333333345</v>
+        <v>96.728999999999999</v>
+      </c>
+      <c r="F20" s="19">
+        <v>18.591354444444441</v>
       </c>
       <c r="G20">
-        <v>0.59482000000000002</v>
+        <v>13.0656</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2883,7 +2894,7 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="19">
         <v>0</v>
       </c>
       <c r="G21">
@@ -2891,6 +2902,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{829FCF1E-6C2D-4FD4-B796-D1AF13B699E6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>